--- a/BackTest/2020-01-15 BackTest FNB.xlsx
+++ b/BackTest/2020-01-15 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>2002448.696999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2036848.696999999</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2036648.696999999</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1959724.034</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2103368.937599999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2103558.937599999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2101740.937599999</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2100894.9725</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1120206.8061</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>191878.4738999997</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-625568.2333000002</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-625378.2333000002</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-625578.2333000002</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-613812.8435000002</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-558006.9875000002</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1851845.78</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1668189.5107</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1636874.899</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3721146.25</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3720924.25</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3721827.4036</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3688712.016</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3683464.2669</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3342889.0994</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3948051.2255</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3948651.2255</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3968651.2255</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4083136.3947</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3970054.132699999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3976654.132699999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4294033.9493</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-6760242.4594</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-6757736.399</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9357736.399</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9831791.7344</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9311791.7344</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9226488.809087001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9326488.809087001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9295828.830487002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-8862815.468987001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-9008235.185087001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-12761415.104587</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-12717804.707387</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-15744890.151387</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-15594310.994287</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-15594310.994287</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-15594110.994287</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-15896791.638487</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-15919098.568587</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-15919098.568587</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-15919098.568587</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-15919098.568587</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-16977010.537987</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-17253501.53648701</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-20054815.07488701</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-19784752.71568701</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-19780679.50838701</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-19780679.50838701</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-19774029.92548701</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-19322919.51878701</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-18768319.84188701</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-18931448.15818701</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-16589839.05438701</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-16838238.59088701</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-17705863.91928701</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-16536912.43588701</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-16536912.43588701</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-16531258.43588701</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-16514797.87518701</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-16171652.11456745</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-16946121.73566745</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-16946121.73566745</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-19314105.94011946</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-19365304.08794036</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-18851518.98894036</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-18851518.98894036</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-18311713.28574036</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-18266116.34434036</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-18534974.50394036</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-18536792.50394036</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-18504779.78584036</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-19949615.34074036</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-19949615.34074036</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-20293851.83524036</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-20293851.83524036</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-19908938.76864036</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-19907190.22444036</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-21688008.06514036</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-20574884.64185628</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-20574662.64185628</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-20574662.64185628</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-17565591.92172176</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-17565591.92172176</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-18358466.64312176</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-17765541.03296441</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-17765743.81086441</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-17765541.03296441</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-15282341.03296441</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-14691538.68532176</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-14691538.68532176</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-14784250.16912176</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-13530067.17162176</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-13156028.00022176</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-11318140.50401475</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-11610418.29501475</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-11607383.06271475</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-11618844.31271475</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-11618294.31271475</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10970145.39931475</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-10970145.39931475</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-10980510.70891475</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-10980236.26711475</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-11130236.26711475</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-11130014.26711475</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-11663751.50041475</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-12428662.50841475</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-12428662.50841475</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-12571190.29011475</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-12571190.29011475</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-12571190.29011475</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13253277.64851475</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-14877268.20391475</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13998098.43651475</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-13282339.58281297</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-13282539.58281297</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-13222539.58281297</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-13222849.58281297</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-13222627.58281297</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-13291622.71481297</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-13292288.71481297</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-13289176.34881297</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-13289376.34881297</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-13289776.34881297</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-13289776.34881297</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-13301383.08431297</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-13300783.08431297</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-15031224.54761297</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-15016427.47901297</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-15016427.47901297</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-16005104.46281297</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-17064497.11681297</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-17636709.56741297</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-21202770.15171297</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-20441860.84541297</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-20088506.77521297</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-20128806.14601297</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-21396474.24571297</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-21128978.94281297</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-21128978.94281297</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-21128978.94281297</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-19337827.35791297</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-19293588.79451297</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-17875642.10271297</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-18018328.77211297</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-18018328.77211297</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-18417310.69391297</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-20647088.43771297</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-20638340.95861297</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-20638340.95861297</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-20604484.95861297</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-20376426.88581297</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-20482041.97191297</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -16621,10 +16621,14 @@
         <v>-87582788.46421635</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="J492" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
@@ -16654,11 +16658,19 @@
         <v>-87816053.51781635</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="J493" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16699,19 @@
         <v>-88097112.15151635</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J494" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +16740,19 @@
         <v>-93071737.49361634</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="J495" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +16781,19 @@
         <v>-93071737.49361634</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="J496" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +16822,19 @@
         <v>-93081641.68971634</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="J497" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +16863,19 @@
         <v>-91839864.67799543</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.442</v>
+      </c>
+      <c r="J498" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +16904,19 @@
         <v>-94653133.74349543</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.447</v>
+      </c>
+      <c r="J499" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +16945,19 @@
         <v>-88322199.08959544</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J500" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +16986,19 @@
         <v>-87710715.89039543</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="J501" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17027,19 @@
         <v>-87168111.42379543</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="J502" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17068,19 @@
         <v>-87844218.35509543</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="J503" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17109,19 @@
         <v>-87412154.40639544</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J504" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17150,19 @@
         <v>-87412154.40639544</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J505" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17191,19 @@
         <v>-88335556.97429544</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J506" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17232,19 @@
         <v>-89878909.67059544</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="J507" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17273,19 @@
         <v>-89986283.50099544</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2.458</v>
+      </c>
+      <c r="J508" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,15 +17314,17 @@
         <v>-90642762.00979544</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>2.457</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -17221,12 +17355,14 @@
         <v>-89547681.53159544</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>2.443</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17260,12 +17396,14 @@
         <v>-89548807.51809543</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>2.457</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17299,12 +17437,14 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>2.443</v>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17338,12 +17478,14 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>2.457</v>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17377,12 +17519,14 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>2.457</v>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17416,10 +17560,14 @@
         <v>-89038077.20499544</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="J515" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17453,12 +17601,14 @@
         <v>-89608158.54449543</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>2.479</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17492,10 +17642,14 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="J517" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17529,12 +17683,14 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>2.446</v>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17568,10 +17724,14 @@
         <v>-88539813.00159544</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="J519" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17605,10 +17765,14 @@
         <v>-89614502.11469544</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="J520" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17642,12 +17806,14 @@
         <v>-88708282.80289544</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>2.446</v>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17681,12 +17847,14 @@
         <v>-88664375.97899544</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>2.447</v>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17720,12 +17888,14 @@
         <v>-88409855.44029544</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>2.467</v>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17759,12 +17929,14 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>2.469</v>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17798,12 +17970,14 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>2.489</v>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17837,10 +18011,14 @@
         <v>-86072512.54739544</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J526" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17874,10 +18052,14 @@
         <v>-85733066.00479543</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J527" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17914,7 +18096,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17951,7 +18135,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17988,7 +18174,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,7 +18213,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18062,7 +18252,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18099,7 +18291,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18136,7 +18330,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18173,7 +18369,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18210,7 +18408,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18247,7 +18447,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18284,7 +18486,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18321,7 +18525,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18358,7 +18564,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18395,7 +18603,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18432,7 +18642,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18469,7 +18681,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18506,7 +18720,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18543,7 +18759,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18580,7 +18798,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18617,7 +18837,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18654,7 +18876,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18691,7 +18915,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18728,7 +18954,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18765,7 +18993,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18802,7 +19032,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18839,7 +19071,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18876,7 +19110,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18913,7 +19149,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18950,7 +19188,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18987,7 +19227,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19024,7 +19266,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19061,7 +19305,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19098,7 +19344,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19135,7 +19383,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19172,7 +19422,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19209,7 +19461,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19246,7 +19500,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19283,7 +19539,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19320,7 +19578,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19357,7 +19617,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19394,7 +19656,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19431,7 +19695,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,7 +19734,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19505,7 +19773,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19542,7 +19812,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19579,7 +19851,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19616,7 +19890,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19653,7 +19929,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19690,7 +19968,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19727,7 +20007,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19764,7 +20046,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19801,7 +20085,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19838,7 +20124,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19875,7 +20163,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19912,7 +20202,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19949,7 +20241,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19986,7 +20280,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20023,7 +20319,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20060,7 +20358,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20097,7 +20397,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20134,7 +20436,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20171,7 +20475,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20208,7 +20514,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20245,7 +20553,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20282,7 +20592,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20319,7 +20631,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20356,7 +20670,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20393,7 +20709,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20430,7 +20748,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20467,7 +20787,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20504,7 +20826,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20541,7 +20865,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20578,7 +20904,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20615,7 +20943,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20652,7 +20982,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20689,7 +21021,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20726,7 +21060,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20763,7 +21099,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20800,7 +21138,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20837,7 +21177,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20874,7 +21216,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,7 +21255,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20948,7 +21294,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20985,7 +21333,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21022,7 +21372,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21059,7 +21411,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21096,7 +21450,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21133,7 +21489,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21170,7 +21528,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21207,7 +21567,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21244,7 +21606,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21281,7 +21645,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21318,7 +21684,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21355,7 +21723,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21392,7 +21762,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21429,7 +21801,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21466,7 +21840,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21503,7 +21879,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21540,7 +21918,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21577,7 +21957,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21614,7 +21996,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21651,7 +22035,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21688,7 +22074,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21725,7 +22113,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21762,7 +22152,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21799,7 +22191,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21836,7 +22230,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21873,7 +22269,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21910,7 +22308,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21947,7 +22347,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21984,7 +22386,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22021,7 +22425,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22058,7 +22464,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22095,7 +22503,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22132,7 +22542,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22169,7 +22581,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22206,7 +22620,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22243,7 +22659,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22280,7 +22698,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22317,7 +22737,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22354,7 +22776,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22391,7 +22815,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22428,7 +22854,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22465,7 +22893,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22502,7 +22932,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22539,7 +22971,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22576,7 +23010,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22613,7 +23049,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22650,7 +23088,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22687,7 +23127,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22724,7 +23166,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22761,7 +23205,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22798,7 +23244,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22835,7 +23283,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22872,7 +23322,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22909,7 +23361,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22946,7 +23400,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22983,7 +23439,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23020,7 +23478,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23057,7 +23517,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23094,7 +23556,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23131,7 +23595,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23168,7 +23634,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23205,7 +23673,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23242,7 +23712,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23279,7 +23751,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23316,7 +23790,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23353,7 +23829,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23390,7 +23868,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23427,7 +23907,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23464,7 +23946,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23501,7 +23985,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23538,7 +24024,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23575,7 +24063,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23612,7 +24102,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23649,7 +24141,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23683,10 +24177,14 @@
         <v>-91019842.23137224</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="J684" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23720,10 +24218,14 @@
         <v>-93433493.51287223</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>2.479</v>
+      </c>
+      <c r="J685" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23757,10 +24259,14 @@
         <v>-93432063.51287223</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>2.458</v>
+      </c>
+      <c r="J686" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23794,10 +24300,14 @@
         <v>-93396778.65457223</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J687" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23831,10 +24341,14 @@
         <v>-93266932.31667224</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="J688" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23868,10 +24382,14 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>2.473</v>
+      </c>
+      <c r="J689" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23905,10 +24423,14 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J690" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23942,10 +24464,14 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J691" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23979,10 +24505,14 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J692" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24016,10 +24546,14 @@
         <v>-92286312.48607224</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J693" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24053,10 +24587,14 @@
         <v>-92362192.96837224</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J694" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24090,10 +24628,14 @@
         <v>-92134630.21247225</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="J695" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24127,10 +24669,14 @@
         <v>-91996013.55047224</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>2.477</v>
+      </c>
+      <c r="J696" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24164,10 +24710,14 @@
         <v>-91686173.99767224</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="J697" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24204,7 +24754,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24241,7 +24793,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24278,7 +24832,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24315,7 +24871,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24352,7 +24910,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24389,7 +24949,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24426,7 +24988,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24463,7 +25027,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24500,7 +25066,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24537,7 +25105,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24574,7 +25144,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24611,7 +25183,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24648,7 +25222,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24685,7 +25261,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24722,7 +25300,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24759,7 +25339,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24796,7 +25378,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24833,7 +25417,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24870,7 +25456,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24907,7 +25495,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24944,7 +25534,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24981,7 +25573,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25015,10 +25609,14 @@
         <v>-97244750.51957223</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="J720" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25055,7 +25653,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25092,7 +25692,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25129,7 +25731,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25166,7 +25770,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25203,7 +25809,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25240,7 +25848,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25274,10 +25884,14 @@
         <v>-96385477.17017223</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>2.477</v>
+      </c>
+      <c r="J727" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25311,10 +25925,14 @@
         <v>-96339220.66147223</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>2.479</v>
+      </c>
+      <c r="J728" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25348,10 +25966,14 @@
         <v>-96339220.66147223</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J729" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25388,7 +26010,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25425,7 +26049,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25462,7 +26088,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25499,7 +26127,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25536,7 +26166,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25570,10 +26202,14 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J735" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25607,10 +26243,14 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="J736" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25644,10 +26284,14 @@
         <v>-102394319.9720722</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="J737" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25681,10 +26325,14 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J738" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25718,10 +26366,14 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J739" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25755,10 +26407,14 @@
         <v>-101789695.6716722</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J740" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25792,10 +26448,14 @@
         <v>-101089695.6716722</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J741" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25829,10 +26489,14 @@
         <v>-101613589.6672722</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J742" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25866,10 +26530,14 @@
         <v>-101613148.3271722</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J743" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25903,10 +26571,14 @@
         <v>-101747181.9430722</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J744" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25940,10 +26612,14 @@
         <v>-101747070.0192722</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="J745" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25977,10 +26653,14 @@
         <v>-101747070.0192722</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J746" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26014,12 +26694,14 @@
         <v>-101746848.0192722</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>2.475</v>
       </c>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26053,10 +26735,14 @@
         <v>-101747758.0192722</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J748" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26090,10 +26776,14 @@
         <v>-100431742.3504722</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="J749" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26127,10 +26817,14 @@
         <v>-99822294.05967222</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="J750" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26164,10 +26858,14 @@
         <v>-99502601.21557222</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="J751" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26204,7 +26902,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26241,7 +26941,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26278,7 +26980,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26315,7 +27019,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26352,7 +27058,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26389,7 +27097,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26426,7 +27136,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26463,7 +27175,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26500,7 +27214,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26534,10 +27250,14 @@
         <v>-106170426.5852722</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="J761" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26574,7 +27294,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26611,7 +27333,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26645,10 +27369,14 @@
         <v>-109178967.6634722</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J764" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26682,10 +27410,14 @@
         <v>-104350373.2238722</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J765" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26722,7 +27454,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26759,7 +27493,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26796,7 +27532,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26833,7 +27571,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26870,7 +27610,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>2.462</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26882,6 +27624,6 @@
       <c r="M770" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest FNB.xlsx
+++ b/BackTest/2020-01-15 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>1999768.696999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1999768.696999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2002648.696999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2002448.696999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2004266.696999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2002248.696999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2017248.696999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2017048.696999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2029238.696999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2029048.696999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2036848.696999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2036648.696999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2102409.036799999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2151845.267599999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2137301.267599999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1959724.034</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2103368.937599999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2103558.937599999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2101740.937599999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2100894.9725</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1120206.8061</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>191878.4738999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-625568.2333000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-625378.2333000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-625578.2333000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-613812.8435000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-558006.9875000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1851845.78</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1668189.5107</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1636874.899</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3721146.25</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3720924.25</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3721827.4036</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3688712.016</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3683464.2669</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3342889.0994</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3948051.2255</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3948651.2255</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3968651.2255</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4083136.3947</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3970054.132699999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3976654.132699999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4294033.9493</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-6760242.4594</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-6757736.399</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9357736.399</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9831791.7344</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9311791.7344</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9226488.809087001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9326488.809087001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9295828.830487002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-8862815.468987001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-9008235.185087001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-9009212.185087001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-9007394.185087001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-9111420.664287001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-9111198.664287001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-9111198.664287001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-9754167.116287</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-9752149.116287</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-9731522.044887001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9731522.044887001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-9811114.973487001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-9811336.973487001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-10334603.824987</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-11544865.587987</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-12761415.104587</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-18375393.35424036</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-18311713.28574036</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-18266116.34434036</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-18338102.07884036</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-18563985.57144036</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-18132544.44394036</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-18137543.72434036</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-18534974.50394036</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-18536792.50394036</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-18536570.50394036</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-19390930.48014036</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-19390708.48014036</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-19789900.15994036</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-19949615.34074036</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-20732966.77395627</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-20545783.25270452</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-20614179.76660452</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-17816993.23572176</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-17817193.23572176</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-17817593.23572176</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-17565591.92172176</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-13156028.00022176</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-11610418.29501475</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-11607383.06271475</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-11618844.31271475</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-11618294.31271475</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10970145.39931475</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-10970145.39931475</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-10980510.70891475</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-11130236.26711475</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-11130014.26711475</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-11663751.50041475</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-12428662.50841475</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-13291622.71481297</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-13292288.71481297</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-23914597.87031296</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-66264115.14521637</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-64986616.54701637</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-64483571.64351637</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-64868134.71241637</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-64867637.71241637</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-64683298.38341636</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-64872442.40881636</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-64873442.40881636</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-64870910.31761636</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-64870910.31761636</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-64912823.89241636</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-64911643.73721636</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-64911643.73721636</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-64840013.13661636</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-63897538.14051636</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-66777071.14521636</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-66777071.14521636</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17347,11 +17347,17 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>2.457</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17386,17 @@
         <v>-89038077.20499544</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2.457</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17425,17 @@
         <v>-89608158.54449543</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2.479</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17464,17 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2.478</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17503,17 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2.446</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17542,17 @@
         <v>-88539813.00159544</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2.446</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17581,17 @@
         <v>-89614502.11469544</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2.468</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17620,17 @@
         <v>-88708282.80289544</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>2.446</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17659,17 @@
         <v>-88664375.97899544</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>2.447</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17698,17 @@
         <v>-88409855.44029544</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>2.467</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17737,17 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>2.469</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17776,17 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>2.489</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +17815,17 @@
         <v>-86072512.54739544</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2.489</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17854,17 @@
         <v>-85733066.00479543</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>2.5</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17893,17 @@
         <v>-84621237.94549543</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2.514</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +17936,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +17973,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18010,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18047,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18084,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18121,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18158,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18195,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18228,15 @@
         <v>-78839849.30949542</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18265,15 @@
         <v>-80020259.42079543</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18302,15 @@
         <v>-80020037.42079543</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18339,15 @@
         <v>-80020037.42079543</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18376,15 @@
         <v>-80019815.42079543</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18413,15 @@
         <v>-81280161.10219543</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18450,15 @@
         <v>-81280161.10219543</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18487,15 @@
         <v>-81279017.10219543</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18528,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18565,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18602,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18635,15 @@
         <v>-82279464.01569542</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +18676,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +18713,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +18750,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18783,15 @@
         <v>-83290945.14659542</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +18820,15 @@
         <v>-83290945.14659542</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +18861,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +18898,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +18931,15 @@
         <v>-83775612.22409542</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +18968,15 @@
         <v>-83775612.22409542</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +19005,15 @@
         <v>-83772948.22409542</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +19042,15 @@
         <v>-83772948.22409542</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +19079,15 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +19116,15 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +19153,15 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +19190,15 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +19227,15 @@
         <v>-80880578.84649542</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +19264,15 @@
         <v>-80778126.92319542</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +19301,15 @@
         <v>-80924271.33909543</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +19338,15 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19375,15 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19412,15 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19449,15 @@
         <v>-82439210.94199543</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +19486,15 @@
         <v>-80862137.32729542</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19523,15 @@
         <v>-80850703.03689542</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +19560,15 @@
         <v>-80851147.03689542</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19597,15 @@
         <v>-80851147.03689542</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19634,15 @@
         <v>-80917969.72109543</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19671,15 @@
         <v>-81611582.32109542</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19712,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19749,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19786,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19823,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19860,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19897,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19934,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19971,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +20008,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20045,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +20078,15 @@
         <v>-80154551.00239542</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +20115,15 @@
         <v>-80154351.00239542</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +20152,15 @@
         <v>-80169090.38699542</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +20189,15 @@
         <v>-79564565.91319542</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20226,15 @@
         <v>-80012497.13399541</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20263,15 @@
         <v>-80012497.13399541</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20300,15 @@
         <v>-80014449.84589541</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20337,15 @@
         <v>-80014449.84589541</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20374,15 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20411,15 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20448,15 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20485,15 @@
         <v>-83579062.9703954</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20526,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20563,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20596,15 @@
         <v>-83260341.80699541</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20633,15 @@
         <v>-83260341.80699541</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20670,15 @@
         <v>-83260633.80699541</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20707,15 @@
         <v>-83022002.17859541</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20744,15 @@
         <v>-83022423.17859541</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20781,15 @@
         <v>-83022423.17859541</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20818,15 @@
         <v>-83022227.17859541</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20855,15 @@
         <v>-83022893.17859541</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20892,15 @@
         <v>-83022893.17859541</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20929,15 @@
         <v>-83021071.17859541</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +20966,15 @@
         <v>-83101755.33039542</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +21003,15 @@
         <v>-83101558.33039542</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +21040,15 @@
         <v>-82760478.83585937</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +21077,15 @@
         <v>-82764922.83585937</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +21114,15 @@
         <v>-82865366.83585937</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +21151,15 @@
         <v>-82864778.83585937</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +21188,15 @@
         <v>-82847812.13005938</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21225,15 @@
         <v>-82848230.13005938</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21262,15 @@
         <v>-82848230.13005938</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +21303,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21336,15 @@
         <v>-83601450.78455937</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21373,15 @@
         <v>-83601450.78455937</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21410,15 @@
         <v>-83598404.64595936</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21447,15 @@
         <v>-83553333.61225936</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21484,15 @@
         <v>-83553333.61225936</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21521,15 @@
         <v>-83703357.14075936</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21558,15 @@
         <v>-83703357.14075936</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21595,15 @@
         <v>-83705392.86185937</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21632,15 @@
         <v>-83520026.32615937</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21669,15 @@
         <v>-83699114.34795937</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21706,15 @@
         <v>-84188540.44745937</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21743,15 @@
         <v>-84111840.97695936</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21784,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21817,15 @@
         <v>-82852612.90765937</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +21854,15 @@
         <v>-82852612.90765937</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21891,15 @@
         <v>-83127383.42675936</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +21928,15 @@
         <v>-83127383.42675936</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21965,15 @@
         <v>-82886481.82245935</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +22002,15 @@
         <v>-82886703.82245935</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +22039,15 @@
         <v>-82885809.82245935</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +22076,15 @@
         <v>-83265473.92945935</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +22113,15 @@
         <v>-83224722.70225935</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +22150,15 @@
         <v>-83428764.83485934</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +22187,15 @@
         <v>-83425430.11155935</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +22228,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +22265,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +22298,15 @@
         <v>-83615446.04675935</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +22339,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22376,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +22413,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +22446,15 @@
         <v>-81891135.83311899</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +22487,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22520,15 @@
         <v>-81895363.61561899</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +22561,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +22598,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +22635,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +22672,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +22709,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +22746,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +22783,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +22820,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +22857,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +22894,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +22931,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22968,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +23005,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +23042,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +23079,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +23116,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +23153,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +23190,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,7 +23227,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +23264,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +23301,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22664,7 +23338,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +23375,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +23412,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +23449,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +23486,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +23523,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +23560,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,15 +23593,15 @@
         <v>-91021654.23137224</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J682" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K682" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22928,17 +23630,13 @@
         <v>-91020043.23137224</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J683" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
@@ -22969,14 +23667,10 @@
         <v>-91019842.23137224</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>2.462</v>
-      </c>
-      <c r="J684" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23010,14 +23704,10 @@
         <v>-93433493.51287223</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>2.479</v>
-      </c>
-      <c r="J685" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23051,14 +23741,10 @@
         <v>-93432063.51287223</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>2.458</v>
-      </c>
-      <c r="J686" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23092,14 +23778,10 @@
         <v>-93396778.65457223</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J687" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23133,14 +23815,10 @@
         <v>-93266932.31667224</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>2.461</v>
-      </c>
-      <c r="J688" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23174,14 +23852,10 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>2.473</v>
-      </c>
-      <c r="J689" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23215,14 +23889,10 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>2.475</v>
-      </c>
-      <c r="J690" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23256,14 +23926,10 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>2.475</v>
-      </c>
-      <c r="J691" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23297,14 +23963,10 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>2.475</v>
-      </c>
-      <c r="J692" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23338,14 +24000,10 @@
         <v>-92286312.48607224</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>2.475</v>
-      </c>
-      <c r="J693" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23382,9 +24040,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23418,14 +24074,10 @@
         <v>-92134630.21247225</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>2.476</v>
-      </c>
-      <c r="J695" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23459,14 +24111,10 @@
         <v>-91996013.55047224</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>2.477</v>
-      </c>
-      <c r="J696" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23500,14 +24148,10 @@
         <v>-91686173.99767224</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>2.481</v>
-      </c>
-      <c r="J697" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23544,9 +24188,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23583,9 +24225,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23622,9 +24262,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23661,9 +24299,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23700,9 +24336,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23739,9 +24373,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23778,9 +24410,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23817,9 +24447,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23856,9 +24484,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23895,9 +24521,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23934,9 +24558,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23973,9 +24595,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24012,9 +24632,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24051,9 +24669,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24090,9 +24706,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24129,9 +24743,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24168,9 +24780,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24207,9 +24817,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24246,9 +24854,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24282,14 +24888,10 @@
         <v>-96996652.57887223</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>2.467</v>
-      </c>
-      <c r="J717" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24323,14 +24925,10 @@
         <v>-97677543.96887223</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J718" t="n">
-        <v>2.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24367,9 +24965,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24406,9 +25002,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24445,9 +25039,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24484,9 +25076,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24523,9 +25113,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24562,9 +25150,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24601,9 +25187,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24640,9 +25224,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24679,9 +25261,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24718,9 +25298,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24757,9 +25335,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24796,9 +25372,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24835,9 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24871,12 +25443,12 @@
         <v>-98725085.09637225</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24910,12 +25482,12 @@
         <v>-98690785.75847225</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24949,12 +25521,12 @@
         <v>-100591682.9944723</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24988,12 +25560,12 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25027,12 +25599,12 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25066,12 +25638,12 @@
         <v>-102394319.9720722</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25105,12 +25677,12 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25144,12 +25716,12 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25183,12 +25755,12 @@
         <v>-101789695.6716722</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25222,12 +25794,12 @@
         <v>-101089695.6716722</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25266,9 +25838,7 @@
       <c r="I742" t="n">
         <v>2.49</v>
       </c>
-      <c r="J742" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25302,12 +25872,12 @@
         <v>-101613148.3271722</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25341,12 +25911,12 @@
         <v>-101747181.9430722</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25385,9 +25955,7 @@
       <c r="I745" t="n">
         <v>2.472</v>
       </c>
-      <c r="J745" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25426,9 +25994,7 @@
       <c r="I746" t="n">
         <v>2.475</v>
       </c>
-      <c r="J746" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25467,9 +26033,7 @@
       <c r="I747" t="n">
         <v>2.475</v>
       </c>
-      <c r="J747" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25508,9 +26072,7 @@
       <c r="I748" t="n">
         <v>2.489</v>
       </c>
-      <c r="J748" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25549,9 +26111,7 @@
       <c r="I749" t="n">
         <v>2.476</v>
       </c>
-      <c r="J749" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25590,9 +26150,7 @@
       <c r="I750" t="n">
         <v>2.489</v>
       </c>
-      <c r="J750" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25631,9 +26189,7 @@
       <c r="I751" t="n">
         <v>2.502</v>
       </c>
-      <c r="J751" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25667,12 +26223,12 @@
         <v>-99502601.21557222</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25706,12 +26262,12 @@
         <v>-102412990.2786722</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25745,12 +26301,12 @@
         <v>-102215697.1396722</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25784,12 +26340,12 @@
         <v>-102215697.1396722</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25823,12 +26379,12 @@
         <v>-102241154.7475722</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25862,12 +26418,12 @@
         <v>-102941427.0722722</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25901,12 +26457,12 @@
         <v>-102941427.0722722</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25940,12 +26496,12 @@
         <v>-102940983.0722722</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25979,12 +26535,12 @@
         <v>-103338298.0266722</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>2.498</v>
+      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26018,12 +26574,12 @@
         <v>-106170426.5852722</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26057,12 +26613,12 @@
         <v>-107350641.5272722</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26096,12 +26652,12 @@
         <v>-109178967.6634722</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26135,12 +26691,12 @@
         <v>-109178967.6634722</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26179,9 +26735,7 @@
       <c r="I765" t="n">
         <v>2.475</v>
       </c>
-      <c r="J765" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,12 +26769,12 @@
         <v>-104007245.3690722</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>2.46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26259,9 +26813,7 @@
       <c r="I767" t="n">
         <v>2.477</v>
       </c>
-      <c r="J767" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26300,9 +26852,7 @@
       <c r="I768" t="n">
         <v>2.476</v>
       </c>
-      <c r="J768" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26341,9 +26891,7 @@
       <c r="I769" t="n">
         <v>2.474</v>
       </c>
-      <c r="J769" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26382,9 +26930,7 @@
       <c r="I770" t="n">
         <v>2.491</v>
       </c>
-      <c r="J770" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
